--- a/datos.xlsx
+++ b/datos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,11 +496,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oracle - Local Docker</t>
+          <t>Autonomous Cloud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,70 +510,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Clasica</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>localhost</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>your_db</t>
+          <t>CLoud Wallet</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>app_user</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>app_password</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Autonomous Cloud</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CLoud Wallet</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ADMIN</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Poolmejor123#*</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>C:/Users/Johan/Downloads/Wallet_seti</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>seti_medium</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Poolmejor123#*</t>
         </is>
@@ -625,16 +585,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>APP_USER</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TABLE_A</t>
+          <t>TB_USUARIOS</t>
         </is>
       </c>
     </row>
@@ -643,16 +603,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>APP_USER</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TABLE_B</t>
+          <t>TB_CIUDAD</t>
         </is>
       </c>
     </row>
@@ -661,16 +621,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>APP_USER</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TABLE_C</t>
+          <t>TB_USUARIOS_OFUSCADOS</t>
         </is>
       </c>
     </row>
@@ -683,12 +643,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SYS</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DUAL</t>
+          <t>TB_CIUDAD_OFUSCADA</t>
         </is>
       </c>
     </row>
@@ -703,7 +663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,7 +697,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>PK_USUARIO</t>
         </is>
       </c>
     </row>
@@ -750,7 +710,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>FK_CIUDAD</t>
         </is>
       </c>
     </row>
@@ -763,7 +723,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EMAIL_1</t>
+          <t>NOMBRE</t>
         </is>
       </c>
     </row>
@@ -776,7 +736,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EMAIL_2</t>
+          <t>APELLIDO</t>
         </is>
       </c>
     </row>
@@ -789,7 +749,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
     </row>
@@ -815,7 +775,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>PK_CIUDAD</t>
         </is>
       </c>
     </row>
@@ -828,7 +788,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>PAIS</t>
         </is>
       </c>
     </row>
@@ -841,59 +801,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EMAIL_1</t>
+          <t>NOMBRE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EMAIL_2</t>
+          <t>PK_USUARIO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FK_CIUDAD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CEDULA</t>
+          <t>NOMBRE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UUID</t>
+          <t>APELLIDO</t>
         </is>
       </c>
     </row>
@@ -902,11 +862,11 @@
         <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
     </row>
@@ -915,11 +875,11 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>CEDULA</t>
         </is>
       </c>
     </row>
@@ -928,76 +888,50 @@
         <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EMAIL_1</t>
+          <t>UUID</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EMAIL_2</t>
+          <t>PK_CIUDAD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>PAIS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CEDULA</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>UUID</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>DUMMY</t>
+          <t>NOMBRE</t>
         </is>
       </c>
     </row>
@@ -1058,17 +992,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ofusca TABLE_A a TABLE_B</t>
+          <t>Ofuscar usuarios</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1080,17 +1014,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Desenfusca la TABLE_B a TABLE_C</t>
+          <t>Ofuscar ciudad</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1107,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1096,11 @@
           <t>XOR</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>587</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -1185,15 +1115,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VIGENERE-CIPHER-ENCODE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>mysecretkey</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>XOR</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4356</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1207,19 +1137,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>X_MAIL</t>
+          <t>VIGENERE-CIPHER-ENCODE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>seti.ofuscado.com</t>
-        </is>
-      </c>
+          <t>patata</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1233,12 +1159,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VIGENERE-CIPHER-MAIL-ENCODE</t>
+          <t>VIGENERE-CIPHER-ENCODE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>patata</t>
+          <t>papaya</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1253,9 +1179,21 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X_MAIL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ofuscado.com.co</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1269,11 +1207,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RAND_DIGITS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>XOR</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>656</v>
+      </c>
+      <c r="F7" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1306,15 +1248,11 @@
           <t>XOR</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>587</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="E9" t="n">
+        <v>65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4356</v>
       </c>
     </row>
     <row r="10">
@@ -1327,16 +1265,8 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VIGENERE-CIPHER-DECODE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>mysecretkey</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1349,85 +1279,9 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>X_MAIL</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>seti.ofuscado.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VIGENERE-CIPHER-MAIL-DECODE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>patata</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
